--- a/Data/Delphi round 1/response sheets/Martin Hu - give your expert opinion on woodland condition116.xlsx
+++ b/Data/Delphi round 1/response sheets/Martin Hu - give your expert opinion on woodland condition116.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Delphi round 1/response sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Woodland-condition/Data/Delphi round 1/response sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{5FF481A3-ABE1-4F87-9706-DC5ED0D1D0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{205DFD18-AAC1-4339-AA10-7D031736DA60}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{5FF481A3-ABE1-4F87-9706-DC5ED0D1D0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBB39E70-E962-429C-ABB2-1117B573453C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4815" windowWidth="16440" windowHeight="28320" firstSheet="13" activeTab="14" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree age distribution" sheetId="20" r:id="rId1"/>
@@ -1068,15 +1068,6 @@
   </cellStyles>
   <dxfs count="56">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1353,6 +1344,15 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5436,56 +5436,53 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'N tree &amp; shrub spp.'!$A$10:$A$25</c:f>
+              <c:f>'N tree &amp; shrub spp.'!$A$10:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -5493,56 +5490,53 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N tree &amp; shrub spp.'!$B$10:$B$25</c:f>
+              <c:f>'N tree &amp; shrub spp.'!$B$10:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>87</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>94</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>97</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>98</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -5571,7 +5565,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
-          <c:min val="0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -19087,28 +19081,28 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{36199700-9E64-4B91-A416-29C9EDD979E1}" name="Table1568910113412" displayName="Table1568910113412" ref="A9:B17" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{36199700-9E64-4B91-A416-29C9EDD979E1}" name="Table1568910113412" displayName="Table1568910113412" ref="A9:B17" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A9:B17" xr:uid="{AB04B7AD-16D4-48B1-9771-A4B9EAE35B9B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:B17">
     <sortCondition ref="A9:A17"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{857AFDEE-F378-4E91-95A5-20706A2E473C}" name="Plot-quarters with significant herbivore damage" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{76A03C4A-D429-4527-8148-09996BB750C9}" name="Relative value to woodland condition" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{857AFDEE-F378-4E91-95A5-20706A2E473C}" name="Plot-quarters with significant herbivore damage" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{76A03C4A-D429-4527-8148-09996BB750C9}" name="Relative value to woodland condition" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{F68A047A-BAD1-46CF-9B29-1942C5D5491B}" name="Table1568910113413" displayName="Table1568910113413" ref="A12:B23" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{F68A047A-BAD1-46CF-9B29-1942C5D5491B}" name="Table1568910113413" displayName="Table1568910113413" ref="A12:B23" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A12:B23" xr:uid="{AB04B7AD-16D4-48B1-9771-A4B9EAE35B9B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:B20">
     <sortCondition ref="A12:A20"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{116D2EFB-EBC9-4DAD-916D-702F644F6C92}" name="Rapid mortality (% of basal area)" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{9CBF7D0B-7842-4B03-AD9F-30F21859D832}" name="Relative value to woodland condition" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{116D2EFB-EBC9-4DAD-916D-702F644F6C92}" name="Rapid mortality (% of basal area)" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{9CBF7D0B-7842-4B03-AD9F-30F21859D832}" name="Relative value to woodland condition" dataDxfId="12">
       <calculatedColumnFormula>100-Table1568910113413[[#This Row],[Rapid mortality (% of basal area)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19117,42 +19111,42 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{6079E9CE-A1F9-4FCA-BA16-440EF2C324B7}" name="Table156891011341314" displayName="Table156891011341314" ref="A9:B30" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{6079E9CE-A1F9-4FCA-BA16-440EF2C324B7}" name="Table156891011341314" displayName="Table156891011341314" ref="A9:B30" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A9:B30" xr:uid="{AB04B7AD-16D4-48B1-9771-A4B9EAE35B9B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:B17">
     <sortCondition ref="A9:A17"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{297D889B-A4EA-47A2-BD9F-3C70DFCCCB12}" name="Positive indicator plants (N)" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{053307BF-A481-48CF-B06C-52D4125A24D7}" name="Relative value to woodland condition" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{297D889B-A4EA-47A2-BD9F-3C70DFCCCB12}" name="Positive indicator plants (N)" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{053307BF-A481-48CF-B06C-52D4125A24D7}" name="Relative value to woodland condition" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{DB5D0F80-4D85-4CC6-B51F-61805106FE6F}" name="Table15689101134131415" displayName="Table15689101134131415" ref="A12:B20" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{DB5D0F80-4D85-4CC6-B51F-61805106FE6F}" name="Table15689101134131415" displayName="Table15689101134131415" ref="A12:B20" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A12:B20" xr:uid="{AB04B7AD-16D4-48B1-9771-A4B9EAE35B9B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:B20">
     <sortCondition ref="A12:A20"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CEE3468C-EDE2-4294-86D1-4E7C966D74CF}" name="Number of top height categories" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{A4FCCBFA-4730-45B0-9B23-8D652341B89D}" name="Relative value to woodland condition" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{CEE3468C-EDE2-4294-86D1-4E7C966D74CF}" name="Number of top height categories" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A4FCCBFA-4730-45B0-9B23-8D652341B89D}" name="Relative value to woodland condition" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1C8EBE34-9D08-4E3C-B604-3F747287205B}" name="Table1568910113413141516" displayName="Table1568910113413141516" ref="A12:B33" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1C8EBE34-9D08-4E3C-B604-3F747287205B}" name="Table1568910113413141516" displayName="Table1568910113413141516" ref="A12:B33" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A12:B33" xr:uid="{AB04B7AD-16D4-48B1-9771-A4B9EAE35B9B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:B20">
     <sortCondition ref="A12:A20"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A6F6AE7F-49DB-4873-8B6A-FDE86B5D993A}" name="Percentage of woodland with signs of damage " dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{980D181E-D921-44C6-90C3-1EE02A222C7C}" name="Relative value to woodland condition" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A6F6AE7F-49DB-4873-8B6A-FDE86B5D993A}" name="Percentage of woodland with signs of damage " dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{980D181E-D921-44C6-90C3-1EE02A222C7C}" name="Relative value to woodland condition" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -19222,7 +19216,7 @@
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D1DABCA8-7EC1-4DA7-8E1F-0B26E8EC48D0}" name="Deadwood (score out of 12)" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{1EA44A32-7A4A-486A-BED4-D928374FF14F}" name="Relative value to woodland condition" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{1EA44A32-7A4A-486A-BED4-D928374FF14F}" name="Relative value to woodland condition" dataDxfId="32">
       <calculatedColumnFormula>(Table1568910[[#This Row],[Deadwood (score out of 12)]]*100)/12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19231,42 +19225,42 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{92AD499A-4E18-406C-BAEC-E939FFC30E2F}" name="Table156891011" displayName="Table156891011" ref="A10:B23" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{92AD499A-4E18-406C-BAEC-E939FFC30E2F}" name="Table156891011" displayName="Table156891011" ref="A10:B23" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A10:B23" xr:uid="{AB04B7AD-16D4-48B1-9771-A4B9EAE35B9B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:B18">
     <sortCondition ref="A10:A18"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E9BE7FA6-FB13-447F-830C-3559226EB043}" name="AVTs per 1 ha (N)" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{16207EA5-E1D9-4A59-80C5-D504451106C2}" name="Relative value to woodland condition" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{E9BE7FA6-FB13-447F-830C-3559226EB043}" name="AVTs per 1 ha (N)" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{16207EA5-E1D9-4A59-80C5-D504451106C2}" name="Relative value to woodland condition" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BC540F87-075A-4AB8-8727-10F29DD8E035}" name="Table1568910113" displayName="Table1568910113" ref="A9:B20" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BC540F87-075A-4AB8-8727-10F29DD8E035}" name="Table1568910113" displayName="Table1568910113" ref="A9:B20" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A9:B20" xr:uid="{AB04B7AD-16D4-48B1-9771-A4B9EAE35B9B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:B17">
     <sortCondition ref="A9:A17"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CA0F963F-8E84-4633-8367-91F8F19A61B6}" name="Woodland area (ha)" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{050FD8E5-FE95-4B99-82B2-755F79BD362D}" name="Relative value to woodland condition" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{CA0F963F-8E84-4633-8367-91F8F19A61B6}" name="Woodland area (ha)" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{050FD8E5-FE95-4B99-82B2-755F79BD362D}" name="Relative value to woodland condition" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C64FCB0F-ABA9-4C06-9783-986EA8D0DCF3}" name="Table15689101134" displayName="Table15689101134" ref="A9:B17" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C64FCB0F-ABA9-4C06-9783-986EA8D0DCF3}" name="Table15689101134" displayName="Table15689101134" ref="A9:B17" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A9:B17" xr:uid="{AB04B7AD-16D4-48B1-9771-A4B9EAE35B9B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:B17">
     <sortCondition ref="A9:A17"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DCFEFE29-6CA1-4599-B969-E6755B62DA58}" name="Number of regenerating tree classes present" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{81FE7587-7A5B-48CE-ADFD-42291D2114C8}" name="Relative value to woodland condition" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{DCFEFE29-6CA1-4599-B969-E6755B62DA58}" name="Number of regenerating tree classes present" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{81FE7587-7A5B-48CE-ADFD-42291D2114C8}" name="Relative value to woodland condition" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -22918,7 +22912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3248C487-FA81-4908-B7DC-7E550BAD9141}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -23682,8 +23676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADE01BF-891C-4D98-B138-661CC22AFA79}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24208,7 +24202,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24284,10 +24278,10 @@
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>9</v>
@@ -24309,10 +24303,10 @@
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -24332,10 +24326,10 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
@@ -24346,18 +24340,18 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>11</v>
@@ -24370,10 +24364,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>53</v>
@@ -24386,10 +24380,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>34</v>
@@ -24402,10 +24396,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13" t="s">
@@ -24418,10 +24412,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13" t="s">
@@ -24434,10 +24428,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13" t="s">
@@ -24450,10 +24444,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>57</v>
@@ -24466,43 +24460,39 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>15</v>
-      </c>
-      <c r="B25" s="2">
-        <v>100</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>

--- a/Data/Delphi round 1/response sheets/Martin Hu - give your expert opinion on woodland condition116.xlsx
+++ b/Data/Delphi round 1/response sheets/Martin Hu - give your expert opinion on woodland condition116.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Woodland-condition/Data/Delphi round 1/response sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{5FF481A3-ABE1-4F87-9706-DC5ED0D1D0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBB39E70-E962-429C-ABB2-1117B573453C}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{5FF481A3-ABE1-4F87-9706-DC5ED0D1D0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84A21684-A8B0-412C-B1C9-EB2E9491289E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
   </bookViews>
@@ -5044,18 +5044,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -5071,15 +5068,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -5108,7 +5102,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
-          <c:min val="0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -23677,7 +23671,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23755,7 +23749,7 @@
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -23780,10 +23774,10 @@
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -23803,10 +23797,10 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
@@ -23817,19 +23811,15 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2">
-        <v>100</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
         <v>11</v>
       </c>
@@ -27394,29 +27384,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
-      <UserInfo>
-        <DisplayName>Christine Reid</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF102A4A1803344B8D888EB900B09227" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="43bc291949bcf5a898aed47fdf38e56c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="090e8724-afd2-4a00-8d2e-c87448cad135" xmlns:ns3="cce065d8-4207-498d-8ddb-77753710233a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a89575b99fa510669e25d545522f68e" ns2:_="" ns3:_="">
     <xsd:import namespace="090e8724-afd2-4a00-8d2e-c87448cad135"/>
@@ -27607,32 +27574,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="090e8724-afd2-4a00-8d2e-c87448cad135"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
+      <UserInfo>
+        <DisplayName>Christine Reid</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6617C3D-29D9-48EE-BF3C-21AA1A387073}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27649,4 +27614,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="090e8724-afd2-4a00-8d2e-c87448cad135"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>